--- a/fiis.xlsx
+++ b/fiis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komatsuforest-my.sharepoint.com/personal/ramon_lara_komatsuforest_com/Documents/Área de Trabalho/Ramon/Fundos_Imobiliarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_82EC7DD58F79A8D366075C52F37BD2728A4AA99B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35082CFF-7DBA-47BB-A893-51FD7A3D3C49}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_82EC7DD58F79A8D366075C52F37BD2728A4AA99B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{584A5CB6-0A3B-452A-87A0-F70B786A1703}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2009,6 +2009,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2336,7 +2340,7 @@
   <dimension ref="A1:O406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection sqref="A1:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>132</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -5638,7 +5642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>135</v>
       </c>
@@ -5682,7 +5686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>147</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -6689,7 +6693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>172</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>180</v>
       </c>
@@ -7194,7 +7198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>203</v>
       </c>
@@ -7884,7 +7888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>214</v>
       </c>
@@ -8207,7 +8211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>226</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>227</v>
       </c>
@@ -8295,7 +8299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>228</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>235</v>
       </c>
@@ -8756,7 +8760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>245</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>250</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>255</v>
       </c>
@@ -9117,7 +9121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>257</v>
       </c>
@@ -9252,7 +9256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>261</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>262</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>263</v>
       </c>
@@ -9895,7 +9899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>283</v>
       </c>
@@ -9939,7 +9943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>284</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>300</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>301</v>
       </c>
@@ -10400,7 +10404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>302</v>
       </c>
@@ -10532,7 +10536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>305</v>
       </c>
@@ -10576,7 +10580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>306</v>
       </c>
@@ -10620,7 +10624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>307</v>
       </c>
@@ -10708,7 +10712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>309</v>
       </c>
@@ -10752,7 +10756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>310</v>
       </c>
@@ -10843,7 +10847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>313</v>
       </c>
@@ -11113,7 +11117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>321</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>324</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>326</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>328</v>
       </c>
@@ -11424,7 +11428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>329</v>
       </c>
@@ -11468,7 +11472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>330</v>
       </c>
@@ -11512,7 +11516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>331</v>
       </c>
@@ -11556,7 +11560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>332</v>
       </c>
@@ -11600,7 +11604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>333</v>
       </c>
@@ -11735,7 +11739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>337</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>349</v>
       </c>
@@ -12287,7 +12291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>357</v>
       </c>
@@ -12331,7 +12335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>358</v>
       </c>
@@ -12469,7 +12473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>363</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>364</v>
       </c>
@@ -12557,7 +12561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>365</v>
       </c>
@@ -12736,7 +12740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>370</v>
       </c>
@@ -12780,7 +12784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>371</v>
       </c>
@@ -12962,7 +12966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>377</v>
       </c>
@@ -13006,7 +13010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>378</v>
       </c>
@@ -13097,7 +13101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>381</v>
       </c>
@@ -13141,7 +13145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>382</v>
       </c>
@@ -13185,7 +13189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>383</v>
       </c>
@@ -13229,7 +13233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>384</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>394</v>
       </c>
@@ -13640,7 +13644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>398</v>
       </c>
@@ -13731,7 +13735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>401</v>
       </c>
@@ -14054,7 +14058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>412</v>
       </c>
@@ -14098,7 +14102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>413</v>
       </c>
@@ -14233,7 +14237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>417</v>
       </c>
@@ -14277,7 +14281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>418</v>
       </c>
@@ -14694,7 +14698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>434</v>
       </c>
@@ -14738,7 +14742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>435</v>
       </c>
@@ -14782,7 +14786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>436</v>
       </c>
@@ -14826,7 +14830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>437</v>
       </c>
@@ -15008,7 +15012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>442</v>
       </c>
@@ -15099,7 +15103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>445</v>
       </c>
@@ -15143,7 +15147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>446</v>
       </c>
@@ -15231,7 +15235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>448</v>
       </c>
@@ -15416,7 +15420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>455</v>
       </c>
@@ -15551,7 +15555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>459</v>
       </c>
@@ -15642,7 +15646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>462</v>
       </c>
@@ -15733,7 +15737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>465</v>
       </c>
@@ -15777,7 +15781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>466</v>
       </c>
@@ -15953,7 +15957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>471</v>
       </c>
@@ -16135,7 +16139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>477</v>
       </c>
@@ -16179,7 +16183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>478</v>
       </c>
@@ -16270,7 +16274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>481</v>
       </c>
@@ -16314,7 +16318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>482</v>
       </c>
@@ -16405,7 +16409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>485</v>
       </c>
@@ -16449,7 +16453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>486</v>
       </c>
@@ -16540,7 +16544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>489</v>
       </c>
@@ -16678,7 +16682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>494</v>
       </c>
@@ -16722,7 +16726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>495</v>
       </c>
@@ -16810,7 +16814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>497</v>
       </c>
@@ -16854,7 +16858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>498</v>
       </c>
@@ -16898,7 +16902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>499</v>
       </c>
@@ -16942,7 +16946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>500</v>
       </c>
@@ -17124,7 +17128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>506</v>
       </c>
@@ -17635,7 +17639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>526</v>
       </c>
@@ -17726,7 +17730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>529</v>
       </c>
@@ -17814,7 +17818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>531</v>
       </c>
@@ -18084,7 +18088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>539</v>
       </c>
@@ -18410,7 +18414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>552</v>
       </c>
@@ -18830,7 +18834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>569</v>
       </c>
@@ -18918,7 +18922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>571</v>
       </c>
@@ -18962,7 +18966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>572</v>
       </c>
@@ -19006,7 +19010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>573</v>
       </c>
@@ -19188,7 +19192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>579</v>
       </c>
@@ -19232,7 +19236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>580</v>
       </c>
@@ -19276,7 +19280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>581</v>
       </c>
@@ -19320,7 +19324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>582</v>
       </c>
@@ -19599,7 +19603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>593</v>
       </c>
@@ -19643,7 +19647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>594</v>
       </c>
@@ -19687,7 +19691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>595</v>
       </c>
@@ -20098,7 +20102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>609</v>
       </c>
@@ -20189,7 +20193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>612</v>
       </c>
@@ -20233,7 +20237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>613</v>
       </c>
@@ -20559,7 +20563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>626</v>
       </c>
@@ -20837,9 +20841,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O406" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Títulos e Val. Mob."/>
+        <filter val="CPTS11"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/fiis.xlsx
+++ b/fiis.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10414,7 +10414,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10924,7 +10924,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11024,7 +11024,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11814,7 +11814,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12134,7 +12134,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12389,7 +12389,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12699,7 +12699,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13114,7 +13114,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13634,7 +13634,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13744,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14059,7 +14059,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14269,7 +14269,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14324,7 +14324,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14544,7 +14544,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14599,7 +14599,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14904,7 +14904,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15114,7 +15114,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15264,7 +15264,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15896,7 +15896,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15946,7 +15946,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16146,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16561,7 +16561,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16666,7 +16666,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17656,7 +17656,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17766,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17926,7 +17926,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18141,7 +18141,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18291,7 +18291,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18396,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18656,7 +18656,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18931,7 +18931,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19311,7 +19311,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19421,7 +19421,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19571,7 +19571,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19671,7 +19671,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19726,7 +19726,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19831,7 +19831,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19881,7 +19881,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19931,7 +19931,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20087,7 +20087,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20142,7 +20142,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20197,7 +20197,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20407,7 +20407,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20512,7 +20512,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20562,7 +20562,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20827,7 +20827,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20882,7 +20882,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20932,7 +20932,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -20987,7 +20987,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21037,7 +21037,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21087,7 +21087,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21142,7 +21142,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21197,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21255,7 +21255,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21310,7 +21310,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21420,7 +21420,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21470,7 +21470,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21525,7 +21525,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21580,7 +21580,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21690,7 +21690,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>
@@ -21740,7 +21740,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-22</t>
         </is>
       </c>
     </row>

--- a/fiis.xlsx
+++ b/fiis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komatsuforest-my.sharepoint.com/personal/ramon_lara_komatsuforest_com/Documents/Área de Trabalho/Ramon/Fundos_Imobiliarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_82EC7DD58F79A8D366075C52F37BD2728A4AA99B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{584A5CB6-0A3B-452A-87A0-F70B786A1703}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_82EC7DD58F79A8D366075C52F37BD2728A4AA99B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C13F8D-95DD-4523-BE86-25118161B844}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2339,8 +2339,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O72"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>132</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>145</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>147</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>172</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>178</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>181</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>193</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>197</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>203</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>208</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>210</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>212</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>217</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>223</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>225</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>226</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>227</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>228</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>229</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>231</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>235</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>236</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>239</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>241</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>243</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>245</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>248</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>251</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>252</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>255</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>257</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>259</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>262</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>263</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>264</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>268</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>270</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>276</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>277</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>279</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>280</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>282</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>283</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>284</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>285</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>287</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>291</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>294</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>296</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>298</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>301</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>302</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>303</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>306</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>307</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>308</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>310</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>311</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>314</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>316</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>318</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>319</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>321</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>322</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>324</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>326</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>327</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>328</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>329</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>331</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>333</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>334</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>335</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>337</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>338</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>340</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>344</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>346</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>350</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>351</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>353</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>355</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>357</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>358</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>359</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>361</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>363</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>364</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>366</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>367</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>368</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>370</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>371</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>372</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>375</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>377</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>378</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>381</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>382</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>383</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>384</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>385</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>389</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>390</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>392</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>395</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>396</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>398</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>399</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>401</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>402</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>403</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>405</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>407</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>409</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>412</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>413</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>414</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>415</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>417</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>418</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>419</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>421</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>423</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>425</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>427</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>429</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>431</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>433</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>435</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>437</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>438</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>439</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>440</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>442</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>443</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>445</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>446</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>447</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>448</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>449</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>451</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>453</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>455</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>456</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>457</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>460</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>462</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>463</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>465</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>466</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>468</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>470</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>472</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>475</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>477</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>478</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>479</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>481</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>482</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>483</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>485</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>487</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>489</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>490</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>494</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>495</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>498</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>499</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>500</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>501</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>504</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>506</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>507</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>509</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>511</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>513</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>515</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>518</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>520</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>524</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>527</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>529</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>530</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>531</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>532</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>535</v>
       </c>
@@ -17997,7 +17997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>536</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>538</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>544</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>546</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>550</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>552</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>553</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>555</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>557</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>567</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>570</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>571</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>572</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>573</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>574</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>576</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>579</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>580</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>581</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>582</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>583</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>585</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>587</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>589</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>591</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>593</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>594</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>595</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>596</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>598</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>599</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>605</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>606</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>607</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>609</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>610</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>613</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>614</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>618</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>620</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>624</v>
       </c>
@@ -20563,7 +20563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>626</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>627</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>631</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>633</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>635</v>
       </c>
@@ -20841,11 +20841,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O406" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CPTS11"/>
-      </filters>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="1"/>
+      </customFilters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O406">
+      <sortCondition ref="A1:A406"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/fiis.xlsx
+++ b/fiis.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14378,7 +14378,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14598,7 +14598,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14803,7 +14803,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15478,7 +15478,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16000,7 +16000,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16360,7 +16360,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16410,7 +16410,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16460,7 +16460,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16670,7 +16670,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16770,7 +16770,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17085,7 +17085,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17185,7 +17185,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17440,7 +17440,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17655,7 +17655,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17820,7 +17820,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -17980,7 +17980,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18090,7 +18090,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18450,7 +18450,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18655,7 +18655,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18820,7 +18820,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18875,7 +18875,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18930,7 +18930,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19310,7 +19310,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19420,7 +19420,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19780,7 +19780,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -19985,7 +19985,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20085,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20251,7 +20251,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20616,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20671,7 +20671,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20831,7 +20831,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20881,7 +20881,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21141,7 +21141,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21196,7 +21196,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21251,7 +21251,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21419,7 +21419,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21474,7 +21474,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21634,7 +21634,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21689,7 +21689,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21744,7 +21744,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>
@@ -21794,7 +21794,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-29</t>
         </is>
       </c>
     </row>

--- a/fiis.xlsx
+++ b/fiis.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10363,7 +10363,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16360,7 +16360,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16410,7 +16410,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16465,7 +16465,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16670,7 +16670,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17090,7 +17090,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17190,7 +17190,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17440,7 +17440,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17650,7 +17650,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17760,7 +17760,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18300,7 +18300,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18450,7 +18450,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18660,7 +18660,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18760,7 +18760,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19360,7 +19360,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19470,7 +19470,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19580,7 +19580,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19630,7 +19630,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19680,7 +19680,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19730,7 +19730,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19780,7 +19780,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19830,7 +19830,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19940,7 +19940,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20040,7 +20040,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20090,7 +20090,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20140,7 +20140,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20301,7 +20301,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20356,7 +20356,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20466,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20516,7 +20516,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20616,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20671,7 +20671,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20721,7 +20721,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20776,7 +20776,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20831,7 +20831,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20886,7 +20886,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21146,7 +21146,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21196,7 +21196,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21414,7 +21414,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21469,7 +21469,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21629,7 +21629,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21684,7 +21684,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21739,7 +21739,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21794,7 +21794,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21849,7 +21849,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -21899,7 +21899,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>

--- a/fiis.xlsx
+++ b/fiis.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10898,7 +10898,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11063,7 +11063,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12248,7 +12248,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12708,7 +12708,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13368,7 +13368,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13750,7 +13750,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14010,7 +14010,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14701,7 +14701,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15271,7 +15271,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15321,7 +15321,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15686,7 +15686,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15796,7 +15796,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15896,7 +15896,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -15946,7 +15946,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16316,7 +16316,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16371,7 +16371,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16631,7 +16631,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16686,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16786,7 +16786,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17156,7 +17156,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17426,7 +17426,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17586,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17736,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17946,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -17996,7 +17996,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18151,7 +18151,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18201,7 +18201,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18306,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18516,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18571,7 +18571,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18678,7 +18678,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -18988,7 +18988,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19083,7 +19083,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19138,7 +19138,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19188,7 +19188,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19293,7 +19293,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19453,7 +19453,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19608,7 +19608,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19658,7 +19658,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19763,7 +19763,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19818,7 +19818,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19923,7 +19923,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20023,7 +20023,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20123,7 +20123,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20223,7 +20223,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20278,7 +20278,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20333,7 +20333,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20383,7 +20383,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20488,7 +20488,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20543,7 +20543,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20648,7 +20648,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20703,7 +20703,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20758,7 +20758,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20813,7 +20813,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20863,7 +20863,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20918,7 +20918,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21028,7 +21028,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21083,7 +21083,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21133,7 +21133,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21288,7 +21288,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21338,7 +21338,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21383,7 +21383,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21643,7 +21643,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21693,7 +21693,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21848,7 +21848,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21898,7 +21898,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22008,7 +22008,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22063,7 +22063,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22118,7 +22118,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22228,7 +22228,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22278,7 +22278,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22608,7 +22608,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22663,7 +22663,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22718,7 +22718,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22773,7 +22773,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22828,7 +22828,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22883,7 +22883,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22933,7 +22933,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -22983,7 +22983,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23083,7 +23083,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23133,7 +23133,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23293,7 +23293,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23393,7 +23393,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23443,7 +23443,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23493,7 +23493,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23543,7 +23543,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23649,7 +23649,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23704,7 +23704,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23759,7 +23759,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23814,7 +23814,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23919,7 +23919,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -23974,7 +23974,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24024,7 +24024,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24079,7 +24079,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24129,7 +24129,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24184,7 +24184,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24234,7 +24234,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24394,7 +24394,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24449,7 +24449,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24504,7 +24504,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24559,7 +24559,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24609,7 +24609,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24659,7 +24659,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24714,7 +24714,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24764,7 +24764,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24819,7 +24819,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24869,7 +24869,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24919,7 +24919,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -24974,7 +24974,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25029,7 +25029,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25086,7 +25086,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25141,7 +25141,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25251,7 +25251,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25301,7 +25301,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25356,7 +25356,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25411,7 +25411,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25516,7 +25516,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25621,7 +25621,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
@@ -25671,7 +25671,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
